--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="6210"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="6210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="VerifyCatalogSearch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Role</t>
   </si>
@@ -63,6 +63,33 @@
   </si>
   <si>
     <t>EA-EACH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CatalogSearchInput </t>
+  </si>
+  <si>
+    <t>LocalSearch</t>
+  </si>
+  <si>
+    <t>GlobalSearch</t>
+  </si>
+  <si>
+    <t>BPO</t>
+  </si>
+  <si>
+    <t>MAGNA DECOPLAS</t>
+  </si>
+  <si>
+    <t>COMPUTER DESKTOP</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>bpo</t>
   </si>
 </sst>
 </file>
@@ -894,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -976,12 +1003,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="6210"/>
+    <workbookView xWindow="600" yWindow="4230" windowWidth="19320" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="AddPriceAgreement" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1:S18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Role</t>
   </si>
@@ -63,6 +64,12 @@
   </si>
   <si>
     <t>EA-EACH</t>
+  </si>
+  <si>
+    <t>selectUOM</t>
+  </si>
+  <si>
+    <t>CU-CUBIC</t>
   </si>
 </sst>
 </file>
@@ -894,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -976,12 +983,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
-    <sheet name="AddPriceAgreement" sheetId="2" r:id="rId2"/>
+    <sheet name="AddPriceAgrmnt_RecentOrder" sheetId="2" r:id="rId2"/>
+    <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Role</t>
   </si>
@@ -27,15 +27,9 @@
     <t xml:space="preserve">Location                      </t>
   </si>
   <si>
-    <t>XEEVA</t>
-  </si>
-  <si>
     <t xml:space="preserve">selectUOM </t>
   </si>
   <si>
-    <t xml:space="preserve">CU-CUBIC </t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -100,6 +94,9 @@
   </si>
   <si>
     <t>EA-EACH</t>
+  </si>
+  <si>
+    <t>CU-CUBIC</t>
   </si>
 </sst>
 </file>
@@ -949,40 +946,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -990,37 +987,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1036,7 +1033,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1054,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1062,13 +1059,27 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="6210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
     <sheet name="VerifyCatalogSearch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:G19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Role</t>
   </si>
@@ -50,9 +51,6 @@
     <t xml:space="preserve">Price </t>
   </si>
   <si>
-    <t xml:space="preserve">Test Item </t>
-  </si>
-  <si>
     <t>INFORMATION TECHNOLOGY</t>
   </si>
   <si>
@@ -62,9 +60,6 @@
     <t>CELL PHONES</t>
   </si>
   <si>
-    <t>EA-EACH</t>
-  </si>
-  <si>
     <t xml:space="preserve">CatalogSearchInput </t>
   </si>
   <si>
@@ -90,6 +85,42 @@
   </si>
   <si>
     <t>bpo</t>
+  </si>
+  <si>
+    <t>REPOFLOR 100 MG</t>
+  </si>
+  <si>
+    <t>UNSPSC Code</t>
+  </si>
+  <si>
+    <t>UNSPSC001</t>
+  </si>
+  <si>
+    <t>Suggested Supplier(s)</t>
+  </si>
+  <si>
+    <t>Sachin Supplier Magna</t>
+  </si>
+  <si>
+    <t>Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>ARMSTRONG</t>
+  </si>
+  <si>
+    <t>MPN001</t>
+  </si>
+  <si>
+    <t>1;10</t>
+  </si>
+  <si>
+    <t>EA-EACH;CU-CUBIC</t>
+  </si>
+  <si>
+    <t>1;2</t>
   </si>
 </sst>
 </file>
@@ -919,26 +950,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -949,25 +981,37 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -975,25 +1019,37 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1005,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1027,16 +1083,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1044,19 +1100,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="4230" windowWidth="19320" windowHeight="6015" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="4230" windowWidth="19320" windowHeight="6015" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
     <sheet name="AddPriceAgrmnt_RecentOrder" sheetId="2" r:id="rId2"/>
     <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="3" r:id="rId3"/>
+    <sheet name="AddPriceAgrmnt_FavFolder" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Role</t>
   </si>
@@ -97,6 +98,18 @@
   </si>
   <si>
     <t>CU-CUBIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemType </t>
+  </si>
+  <si>
+    <t>ItemNumber</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>156001-00013</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1072,14 +1085,83 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -1,9 +1,989 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15825" windowHeight="6210" tabRatio="666" activeTab="3"/>
+  </bookViews>
+  <sheets>
+    <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
+    <sheet name="VerifyCatalogSearch" sheetId="2" r:id="rId2"/>
+    <sheet name="AddPriceAgrmnt_RecentOrder" sheetId="3" r:id="rId3"/>
+    <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="4" r:id="rId4"/>
+  </sheets>
+  <calcPr calcId="125725"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>REQUESTOR</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>XEEVA -MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Description </t>
+  </si>
+  <si>
+    <t>Category Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit of Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>CELL PHONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CatalogSearchInput </t>
+  </si>
+  <si>
+    <t>LocalSearch</t>
+  </si>
+  <si>
+    <t>GlobalSearch</t>
+  </si>
+  <si>
+    <t>BPO</t>
+  </si>
+  <si>
+    <t>MAGNA DECOPLAS</t>
+  </si>
+  <si>
+    <t>COMPUTER DESKTOP</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>bpo</t>
+  </si>
+  <si>
+    <t>REPOFLOR 100 MG</t>
+  </si>
+  <si>
+    <t>UNSPSC Code</t>
+  </si>
+  <si>
+    <t>UNSPSC001</t>
+  </si>
+  <si>
+    <t>Suggested Supplier(s)</t>
+  </si>
+  <si>
+    <t>Sachin Supplier Magna</t>
+  </si>
+  <si>
+    <t>Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>ARMSTRONG</t>
+  </si>
+  <si>
+    <t>MPN001</t>
+  </si>
+  <si>
+    <t>1;10</t>
+  </si>
+  <si>
+    <t>EA-EACH;CU-CUBIC</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectUOM </t>
+  </si>
+  <si>
+    <t>CU-CUBIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemType </t>
+  </si>
+  <si>
+    <t>ItemNumber</t>
+  </si>
+  <si>
+    <t>156001-00013</t>
+  </si>
+  <si>
+    <t>NPAI</t>
+  </si>
+  <si>
+    <t>PAItem</t>
+  </si>
+  <si>
+    <t>NPAItem</t>
+  </si>
+  <si>
+    <t>PAI</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -106,4 +1086,168 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="6210"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15825" windowHeight="6210" tabRatio="666" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:N19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Role</t>
   </si>
@@ -140,6 +141,27 @@
   </si>
   <si>
     <t>156001-00013</t>
+  </si>
+  <si>
+    <t>NPAI</t>
+  </si>
+  <si>
+    <t>PAItem</t>
+  </si>
+  <si>
+    <t>NPAItem</t>
+  </si>
+  <si>
+    <t>PAI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Qty</t>
   </si>
 </sst>
 </file>
@@ -971,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1141,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1152,9 +1174,10 @@
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,8 +1187,23 @@
       <c r="C1" t="s">
         <v>36</v>
       </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1174,6 +1212,21 @@
       </c>
       <c r="C2" t="s">
         <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -1,10 +1,1000 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15825" windowHeight="6210" tabRatio="666"/>
+  </bookViews>
+  <sheets>
+    <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
+    <sheet name="VerifyCatalogSearch" sheetId="2" r:id="rId2"/>
+    <sheet name="AddPriceAgrmnt_RecentOrder" sheetId="3" r:id="rId3"/>
+    <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="4" r:id="rId4"/>
+  </sheets>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1:G19"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>REQUESTOR</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>XEEVA -MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Description </t>
+  </si>
+  <si>
+    <t>Category Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit of Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>CELL PHONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CatalogSearchInput </t>
+  </si>
+  <si>
+    <t>LocalSearch</t>
+  </si>
+  <si>
+    <t>GlobalSearch</t>
+  </si>
+  <si>
+    <t>BPO</t>
+  </si>
+  <si>
+    <t>MAGNA DECOPLAS</t>
+  </si>
+  <si>
+    <t>COMPUTER DESKTOP</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>bpo</t>
+  </si>
+  <si>
+    <t>REPOFLOR 100 MG</t>
+  </si>
+  <si>
+    <t>UNSPSC Code</t>
+  </si>
+  <si>
+    <t>UNSPSC001</t>
+  </si>
+  <si>
+    <t>Suggested Supplier(s)</t>
+  </si>
+  <si>
+    <t>Sachin Supplier Magna</t>
+  </si>
+  <si>
+    <t>Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>ARMSTRONG</t>
+  </si>
+  <si>
+    <t>MPN001</t>
+  </si>
+  <si>
+    <t>1;10</t>
+  </si>
+  <si>
+    <t>EA-EACH;CU-CUBIC</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectUOM </t>
+  </si>
+  <si>
+    <t>CU-CUBIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemType </t>
+  </si>
+  <si>
+    <t>ItemNumber</t>
+  </si>
+  <si>
+    <t>156001-00013</t>
+  </si>
+  <si>
+    <t>NPAI</t>
+  </si>
+  <si>
+    <t>PAItem</t>
+  </si>
+  <si>
+    <t>NPAItem</t>
+  </si>
+  <si>
+    <t>PAI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -106,4 +1096,183 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15825" windowHeight="6210" tabRatio="666" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2850" windowWidth="12345" windowHeight="4335" tabRatio="666" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
     <sheet name="VerifyCatalogSearch" sheetId="2" r:id="rId2"/>
     <sheet name="AddPriceAgrmnt_RecentOrder" sheetId="3" r:id="rId3"/>
     <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="4" r:id="rId4"/>
+    <sheet name="AddPriceAgrmnt_FavFolder" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Role</t>
   </si>
@@ -152,6 +153,15 @@
   </si>
   <si>
     <t>PAI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Qty</t>
   </si>
 </sst>
 </file>
@@ -983,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,21 +1163,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1175,7 +1187,7 @@
         <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>42</v>
@@ -1183,8 +1195,17 @@
       <c r="E1" t="s">
         <v>43</v>
       </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1192,13 +1213,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1210,12 +1240,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1250,4 +1283,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -1,10 +1,1024 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15825" windowHeight="6210" tabRatio="666" activeTab="3"/>
+  </bookViews>
+  <sheets>
+    <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
+    <sheet name="VerifyCatalogSearch" sheetId="2" r:id="rId2"/>
+    <sheet name="AddPriceAgrmnt_RecentOrder" sheetId="3" r:id="rId3"/>
+    <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="4" r:id="rId4"/>
+    <sheet name="AddNonPriceAgr_GlobalCatalog" sheetId="5" r:id="rId5"/>
+  </sheets>
+  <calcPr calcId="125725"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>REQUESTOR</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>XEEVA -MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Description </t>
+  </si>
+  <si>
+    <t>Category Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit of Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>CELL PHONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CatalogSearchInput </t>
+  </si>
+  <si>
+    <t>LocalSearch</t>
+  </si>
+  <si>
+    <t>GlobalSearch</t>
+  </si>
+  <si>
+    <t>BPO</t>
+  </si>
+  <si>
+    <t>MAGNA DECOPLAS</t>
+  </si>
+  <si>
+    <t>COMPUTER DESKTOP</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>bpo</t>
+  </si>
+  <si>
+    <t>REPOFLOR 100 MG</t>
+  </si>
+  <si>
+    <t>UNSPSC Code</t>
+  </si>
+  <si>
+    <t>UNSPSC001</t>
+  </si>
+  <si>
+    <t>Suggested Supplier(s)</t>
+  </si>
+  <si>
+    <t>Sachin Supplier Magna</t>
+  </si>
+  <si>
+    <t>Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>ARMSTRONG</t>
+  </si>
+  <si>
+    <t>MPN001</t>
+  </si>
+  <si>
+    <t>1;10</t>
+  </si>
+  <si>
+    <t>EA-EACH;CU-CUBIC</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectUOM </t>
+  </si>
+  <si>
+    <t>CU-CUBIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemType </t>
+  </si>
+  <si>
+    <t>ItemNumber</t>
+  </si>
+  <si>
+    <t>156001-00013</t>
+  </si>
+  <si>
+    <t>NPAI</t>
+  </si>
+  <si>
+    <t>PAItem</t>
+  </si>
+  <si>
+    <t>NPAItem</t>
+  </si>
+  <si>
+    <t>PAI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Global Item</t>
+  </si>
+  <si>
+    <t>ItemDescription</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitofMeasure</t>
+  </si>
+  <si>
+    <t>Iphone</t>
+  </si>
+  <si>
+    <t>iPhone_d_99_4</t>
+  </si>
+  <si>
+    <t>EA-EACH</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -106,4 +1120,266 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15825" windowHeight="6210" tabRatio="666"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15825" windowHeight="6210" tabRatio="666" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
     <sheet name="VerifyCatalogSearch" sheetId="2" r:id="rId2"/>
     <sheet name="AddPriceAgrmnt_RecentOrder" sheetId="3" r:id="rId3"/>
     <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="4" r:id="rId4"/>
+    <sheet name="AddNonPriceAgr_GlobalCatalog" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:G19"/>
+  <oleSize ref="A1:I19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Role</t>
   </si>
@@ -162,6 +163,30 @@
   </si>
   <si>
     <t>Qty</t>
+  </si>
+  <si>
+    <t>Global Item</t>
+  </si>
+  <si>
+    <t>ItemDescription</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitofMeasure</t>
+  </si>
+  <si>
+    <t>Iphone</t>
+  </si>
+  <si>
+    <t>iPhone_d_99_4</t>
+  </si>
+  <si>
+    <t>EA-EACH</t>
   </si>
 </sst>
 </file>
@@ -993,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1103,7 +1128,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1166,7 +1191,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1239,7 +1264,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1275,4 +1300,87 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -1,3 +1,1017 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15825" windowHeight="6210" tabRatio="666" firstSheet="3" activeTab="4"/>
+  </bookViews>
+  <sheets>
+    <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
+    <sheet name="VerifyCatalogSearch" sheetId="2" r:id="rId2"/>
+    <sheet name="AddPriceAgrmnt_RecentOrder" sheetId="3" r:id="rId3"/>
+    <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="4" r:id="rId4"/>
+    <sheet name="AddNonPriceAgr_GlobalCatalog" sheetId="5" r:id="rId5"/>
+  </sheets>
+  <calcPr calcId="125725"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>REQUESTOR</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>XEEVA -MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Description </t>
+  </si>
+  <si>
+    <t>Category Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit of Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>CELL PHONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CatalogSearchInput </t>
+  </si>
+  <si>
+    <t>LocalSearch</t>
+  </si>
+  <si>
+    <t>GlobalSearch</t>
+  </si>
+  <si>
+    <t>BPO</t>
+  </si>
+  <si>
+    <t>MAGNA DECOPLAS</t>
+  </si>
+  <si>
+    <t>COMPUTER DESKTOP</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>bpo</t>
+  </si>
+  <si>
+    <t>REPOFLOR 100 MG</t>
+  </si>
+  <si>
+    <t>UNSPSC Code</t>
+  </si>
+  <si>
+    <t>UNSPSC001</t>
+  </si>
+  <si>
+    <t>Suggested Supplier(s)</t>
+  </si>
+  <si>
+    <t>Sachin Supplier Magna</t>
+  </si>
+  <si>
+    <t>Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>ARMSTRONG</t>
+  </si>
+  <si>
+    <t>MPN001</t>
+  </si>
+  <si>
+    <t>1;10</t>
+  </si>
+  <si>
+    <t>EA-EACH;CU-CUBIC</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectUOM </t>
+  </si>
+  <si>
+    <t>CU-CUBIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemType </t>
+  </si>
+  <si>
+    <t>ItemNumber</t>
+  </si>
+  <si>
+    <t>156001-00013</t>
+  </si>
+  <si>
+    <t>NPAI</t>
+  </si>
+  <si>
+    <t>PAItem</t>
+  </si>
+  <si>
+    <t>NPAItem</t>
+  </si>
+  <si>
+    <t>PAI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Global Item</t>
+  </si>
+  <si>
+    <t>ItemDescription</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitofMeasure</t>
+  </si>
+  <si>
+    <t>Iphone</t>
+  </si>
+  <si>
+    <t>iPhone_d_99_4</t>
+  </si>
+  <si>
+    <t>EA-EACH</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
@@ -108,11 +1122,190 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15825" windowHeight="6210" tabRatio="666" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15825" windowHeight="6210" tabRatio="666" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="AddPriceAgrmnt_RecentOrder" sheetId="3" r:id="rId3"/>
     <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="4" r:id="rId4"/>
     <sheet name="AddNonPriceAgr_GlobalCatalog" sheetId="5" r:id="rId5"/>
+    <sheet name="AddPriceAgrmnt_FavFolder" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>Role</t>
   </si>
@@ -1305,7 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1382,4 +1383,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Role</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>EA-EACH</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -670,8 +676,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1306,7 +1313,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1363,17 +1370,17 @@
       <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="E2">
-        <v>2</v>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>

--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -1,3 +1,1026 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15825" windowHeight="6210" tabRatio="666" firstSheet="2" activeTab="2"/>
+  </bookViews>
+  <sheets>
+    <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
+    <sheet name="VerifyCatalogSearch" sheetId="2" r:id="rId2"/>
+    <sheet name="AddPriceAgrmnt_RecentOrder" sheetId="3" r:id="rId3"/>
+    <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="4" r:id="rId4"/>
+    <sheet name="AddNonPriceAgr_GlobalCatalog" sheetId="5" r:id="rId5"/>
+    <sheet name="AddPriceAgrmnt_FavFolder" sheetId="6" r:id="rId6"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>REQUESTOR</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>XEEVA -MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Description </t>
+  </si>
+  <si>
+    <t>Category Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit of Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>CELL PHONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CatalogSearchInput </t>
+  </si>
+  <si>
+    <t>LocalSearch</t>
+  </si>
+  <si>
+    <t>GlobalSearch</t>
+  </si>
+  <si>
+    <t>BPO</t>
+  </si>
+  <si>
+    <t>MAGNA DECOPLAS</t>
+  </si>
+  <si>
+    <t>COMPUTER DESKTOP</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>bpo</t>
+  </si>
+  <si>
+    <t>REPOFLOR 100 MG</t>
+  </si>
+  <si>
+    <t>UNSPSC Code</t>
+  </si>
+  <si>
+    <t>UNSPSC001</t>
+  </si>
+  <si>
+    <t>Suggested Supplier(s)</t>
+  </si>
+  <si>
+    <t>Sachin Supplier Magna</t>
+  </si>
+  <si>
+    <t>Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>ARMSTRONG</t>
+  </si>
+  <si>
+    <t>MPN001</t>
+  </si>
+  <si>
+    <t>1;10</t>
+  </si>
+  <si>
+    <t>EA-EACH;CU-CUBIC</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectUOM </t>
+  </si>
+  <si>
+    <t>CU-CUBIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemType </t>
+  </si>
+  <si>
+    <t>ItemNumber</t>
+  </si>
+  <si>
+    <t>156001-00013</t>
+  </si>
+  <si>
+    <t>NPAI</t>
+  </si>
+  <si>
+    <t>PAItem</t>
+  </si>
+  <si>
+    <t>NPAItem</t>
+  </si>
+  <si>
+    <t>PAI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Global Item</t>
+  </si>
+  <si>
+    <t>ItemDescription</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitofMeasure</t>
+  </si>
+  <si>
+    <t>Iphone</t>
+  </si>
+  <si>
+    <t>iPhone_d_99_4</t>
+  </si>
+  <si>
+    <t>EA-EACH</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+  </cellXfs>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
@@ -108,12 +1131,185 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -170,17 +1366,17 @@
       <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="E2">
-        <v>2</v>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
@@ -195,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -1,3 +1,1027 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16785" windowHeight="6210" tabRatio="666" activeTab="2"/>
+  </bookViews>
+  <sheets>
+    <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
+    <sheet name="VerifyCatalogSearch" sheetId="2" r:id="rId2"/>
+    <sheet name="AddPriceAgrmnt_RecentOrder" sheetId="3" r:id="rId3"/>
+    <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="4" r:id="rId4"/>
+    <sheet name="AddNonPriceAgr_GlobalCatalog" sheetId="5" r:id="rId5"/>
+    <sheet name="AddPriceAgrmnt_FavFolder" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+  </sheets>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1:Q19"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>REQUESTOR</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>XEEVA -MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Description </t>
+  </si>
+  <si>
+    <t>Category Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit of Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>CELL PHONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CatalogSearchInput </t>
+  </si>
+  <si>
+    <t>LocalSearch</t>
+  </si>
+  <si>
+    <t>GlobalSearch</t>
+  </si>
+  <si>
+    <t>BPO</t>
+  </si>
+  <si>
+    <t>MAGNA DECOPLAS</t>
+  </si>
+  <si>
+    <t>COMPUTER DESKTOP</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>bpo</t>
+  </si>
+  <si>
+    <t>REPOFLOR 100 MG</t>
+  </si>
+  <si>
+    <t>UNSPSC Code</t>
+  </si>
+  <si>
+    <t>UNSPSC001</t>
+  </si>
+  <si>
+    <t>Suggested Supplier(s)</t>
+  </si>
+  <si>
+    <t>Sachin Supplier Magna</t>
+  </si>
+  <si>
+    <t>Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>ARMSTRONG</t>
+  </si>
+  <si>
+    <t>MPN001</t>
+  </si>
+  <si>
+    <t>1;10</t>
+  </si>
+  <si>
+    <t>EA-EACH;CU-CUBIC</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectUOM </t>
+  </si>
+  <si>
+    <t>CU-CUBIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemType </t>
+  </si>
+  <si>
+    <t>ItemNumber</t>
+  </si>
+  <si>
+    <t>156001-00013</t>
+  </si>
+  <si>
+    <t>Global Item</t>
+  </si>
+  <si>
+    <t>ItemDescription</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitofMeasure</t>
+  </si>
+  <si>
+    <t>Iphone</t>
+  </si>
+  <si>
+    <t>iPhone_d_99_4</t>
+  </si>
+  <si>
+    <t>EA-EACH</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>PAItem</t>
+  </si>
+  <si>
+    <t>NPAItem</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>PAI</t>
+  </si>
+  <si>
+    <t>NPAI</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+  </cellXfs>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
@@ -108,12 +1132,185 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -136,10 +1333,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -148,13 +1345,13 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -165,25 +1362,25 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -195,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -230,4 +1427,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -1,3 +1,1019 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="2850" windowWidth="14235" windowHeight="6015" tabRatio="666" activeTab="2"/>
+  </bookViews>
+  <sheets>
+    <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
+    <sheet name="VerifyCatalogSearch" sheetId="2" r:id="rId2"/>
+    <sheet name="AddPriceAgrmnt_RecentOrder" sheetId="3" r:id="rId3"/>
+    <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="4" r:id="rId4"/>
+    <sheet name="AddNonPriceAgr_GlobalCatalog" sheetId="5" r:id="rId5"/>
+    <sheet name="AddPriceAgrmnt_FavFolder" sheetId="6" r:id="rId6"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1:M18"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>REQUESTOR</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>XEEVA -MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Description </t>
+  </si>
+  <si>
+    <t>Category Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit of Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>CELL PHONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CatalogSearchInput </t>
+  </si>
+  <si>
+    <t>LocalSearch</t>
+  </si>
+  <si>
+    <t>GlobalSearch</t>
+  </si>
+  <si>
+    <t>BPO</t>
+  </si>
+  <si>
+    <t>MAGNA DECOPLAS</t>
+  </si>
+  <si>
+    <t>COMPUTER DESKTOP</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>bpo</t>
+  </si>
+  <si>
+    <t>REPOFLOR 100 MG</t>
+  </si>
+  <si>
+    <t>UNSPSC Code</t>
+  </si>
+  <si>
+    <t>UNSPSC001</t>
+  </si>
+  <si>
+    <t>Suggested Supplier(s)</t>
+  </si>
+  <si>
+    <t>Sachin Supplier Magna</t>
+  </si>
+  <si>
+    <t>Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>ARMSTRONG</t>
+  </si>
+  <si>
+    <t>MPN001</t>
+  </si>
+  <si>
+    <t>1;10</t>
+  </si>
+  <si>
+    <t>EA-EACH;CU-CUBIC</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectUOM </t>
+  </si>
+  <si>
+    <t>CU-CUBIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemType </t>
+  </si>
+  <si>
+    <t>ItemNumber</t>
+  </si>
+  <si>
+    <t>156001-00013</t>
+  </si>
+  <si>
+    <t>NPAI</t>
+  </si>
+  <si>
+    <t>PAItem</t>
+  </si>
+  <si>
+    <t>NPAItem</t>
+  </si>
+  <si>
+    <t>PAI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Global Item</t>
+  </si>
+  <si>
+    <t>ItemDescription</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitofMeasure</t>
+  </si>
+  <si>
+    <t>Iphone</t>
+  </si>
+  <si>
+    <t>iPhone_d_99_4</t>
+  </si>
+  <si>
+    <t>EA-EACH</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
@@ -101,6 +1117,185 @@
       </c>
       <c r="M2" t="s">
         <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -195,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -1,3 +1,1031 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15825" windowHeight="6210" tabRatio="666" firstSheet="2" activeTab="5"/>
+  </bookViews>
+  <sheets>
+    <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
+    <sheet name="VerifyCatalogSearch" sheetId="2" r:id="rId2"/>
+    <sheet name="AddPriceAgrmnt_RecentOrder" sheetId="3" r:id="rId3"/>
+    <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="4" r:id="rId4"/>
+    <sheet name="AddNonPriceAgr_GlobalCatalog" sheetId="5" r:id="rId5"/>
+    <sheet name="AddPriceAgrmnt_FavFolder" sheetId="6" r:id="rId6"/>
+  </sheets>
+  <calcPr calcId="125725"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>REQUESTOR</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>XEEVA -MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Description </t>
+  </si>
+  <si>
+    <t>Category Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit of Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>CELL PHONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CatalogSearchInput </t>
+  </si>
+  <si>
+    <t>LocalSearch</t>
+  </si>
+  <si>
+    <t>GlobalSearch</t>
+  </si>
+  <si>
+    <t>BPO</t>
+  </si>
+  <si>
+    <t>MAGNA DECOPLAS</t>
+  </si>
+  <si>
+    <t>COMPUTER DESKTOP</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>bpo</t>
+  </si>
+  <si>
+    <t>REPOFLOR 100 MG</t>
+  </si>
+  <si>
+    <t>UNSPSC Code</t>
+  </si>
+  <si>
+    <t>UNSPSC001</t>
+  </si>
+  <si>
+    <t>Suggested Supplier(s)</t>
+  </si>
+  <si>
+    <t>Sachin Supplier Magna</t>
+  </si>
+  <si>
+    <t>Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>ARMSTRONG</t>
+  </si>
+  <si>
+    <t>MPN001</t>
+  </si>
+  <si>
+    <t>1;10</t>
+  </si>
+  <si>
+    <t>EA-EACH;CU-CUBIC</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectUOM </t>
+  </si>
+  <si>
+    <t>CU-CUBIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemType </t>
+  </si>
+  <si>
+    <t>ItemNumber</t>
+  </si>
+  <si>
+    <t>156001-00013</t>
+  </si>
+  <si>
+    <t>NPAI</t>
+  </si>
+  <si>
+    <t>PAItem</t>
+  </si>
+  <si>
+    <t>NPAItem</t>
+  </si>
+  <si>
+    <t>PAI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Global Item</t>
+  </si>
+  <si>
+    <t>ItemDescription</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitofMeasure</t>
+  </si>
+  <si>
+    <t>Iphone</t>
+  </si>
+  <si>
+    <t>iPhone_d_99_4</t>
+  </si>
+  <si>
+    <t>EA-EACH</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location          </t>
+  </si>
+  <si>
+    <t>selectUOM</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+  </cellXfs>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
@@ -108,12 +1136,191 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -136,10 +1343,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -148,13 +1355,13 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -165,25 +1372,25 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -195,14 +1402,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -210,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -230,16 +1436,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -1,3 +1,1025 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="2850" windowWidth="12225" windowHeight="4440" tabRatio="666" firstSheet="2" activeTab="3"/>
+  </bookViews>
+  <sheets>
+    <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
+    <sheet name="VerifyCatalogSearch" sheetId="2" r:id="rId2"/>
+    <sheet name="AddPriceAgrmnt_RecentOrder" sheetId="3" r:id="rId3"/>
+    <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="4" r:id="rId4"/>
+    <sheet name="AddNonPriceAgr_GlobalCatalog" sheetId="5" r:id="rId5"/>
+    <sheet name="AddPriceAgrmnt_FavFolder" sheetId="6" r:id="rId6"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>REQUESTOR</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>XEEVA -MJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Description </t>
+  </si>
+  <si>
+    <t>Category Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Unit of Measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>CELL PHONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CatalogSearchInput </t>
+  </si>
+  <si>
+    <t>LocalSearch</t>
+  </si>
+  <si>
+    <t>GlobalSearch</t>
+  </si>
+  <si>
+    <t>BPO</t>
+  </si>
+  <si>
+    <t>MAGNA DECOPLAS</t>
+  </si>
+  <si>
+    <t>COMPUTER DESKTOP</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>bpo</t>
+  </si>
+  <si>
+    <t>REPOFLOR 100 MG</t>
+  </si>
+  <si>
+    <t>UNSPSC Code</t>
+  </si>
+  <si>
+    <t>UNSPSC001</t>
+  </si>
+  <si>
+    <t>Suggested Supplier(s)</t>
+  </si>
+  <si>
+    <t>Sachin Supplier Magna</t>
+  </si>
+  <si>
+    <t>Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>ARMSTRONG</t>
+  </si>
+  <si>
+    <t>MPN001</t>
+  </si>
+  <si>
+    <t>1;10</t>
+  </si>
+  <si>
+    <t>EA-EACH;CU-CUBIC</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectUOM </t>
+  </si>
+  <si>
+    <t>CU-CUBIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ItemType </t>
+  </si>
+  <si>
+    <t>ItemNumber</t>
+  </si>
+  <si>
+    <t>156001-00013</t>
+  </si>
+  <si>
+    <t>NPAI</t>
+  </si>
+  <si>
+    <t>PAItem</t>
+  </si>
+  <si>
+    <t>NPAItem</t>
+  </si>
+  <si>
+    <t>PAI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Global Item</t>
+  </si>
+  <si>
+    <t>ItemDescription</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitPrice</t>
+  </si>
+  <si>
+    <t>UpdatedUnitofMeasure</t>
+  </si>
+  <si>
+    <t>Iphone</t>
+  </si>
+  <si>
+    <t>iPhone_d_99_4</t>
+  </si>
+  <si>
+    <t>EA-EACH</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+  </cellXfs>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
@@ -108,12 +1130,188 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -136,10 +1334,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -148,13 +1346,13 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -165,25 +1363,25 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -193,19 +1391,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -215,8 +1415,17 @@
       <c r="C1" t="s">
         <v>36</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -225,21 +1434,18 @@
       </c>
       <c r="C2" t="s">
         <v>37</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15825" windowHeight="6210" tabRatio="666" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16050" windowHeight="6210" tabRatio="666" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="AddPriceAgrmnt_FavFolder" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:J19"/>
 </workbook>
 </file>
 
@@ -1204,7 +1205,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1319,7 +1320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1402,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="6210" tabRatio="666" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2850" windowWidth="13935" windowHeight="4170" tabRatio="666" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="AddPriceAgrmnt_LocalCatalog" sheetId="4" r:id="rId4"/>
     <sheet name="AddNonPriceAgr_GlobalCatalog" sheetId="5" r:id="rId5"/>
     <sheet name="AddPriceAgrmnt_FavFolder" sheetId="6" r:id="rId6"/>
+    <sheet name="AddPriceAgrmnt_CompareScreen" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <oleSize ref="A1:M19"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>Role</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>selectUOM</t>
+  </si>
+  <si>
+    <t>searchItem</t>
+  </si>
+  <si>
+    <t>UnitofMeasure</t>
+  </si>
+  <si>
+    <t>Iphones</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1321,7 +1330,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1404,7 +1413,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1437,4 +1446,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2850" windowWidth="13935" windowHeight="4170" tabRatio="666" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="6210" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="AddNonPriceAgr_GlobalCatalog" sheetId="5" r:id="rId5"/>
     <sheet name="AddPriceAgrmnt_FavFolder" sheetId="6" r:id="rId6"/>
     <sheet name="AddPriceAgrmnt_CompareScreen" sheetId="7" r:id="rId7"/>
+    <sheet name="Verify_AddInternalComments" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1:I19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>Role</t>
   </si>
@@ -209,6 +211,24 @@
   </si>
   <si>
     <t>Iphones</t>
+  </si>
+  <si>
+    <t>Internal Comment</t>
+  </si>
+  <si>
+    <t>Item Added Successfully</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>Cell Phones</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1307,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1329,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1452,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1495,4 +1515,65 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/datasheets/Catalog.xlsx
+++ b/src/test/resources/datasheets/Catalog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="6210" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="6210" tabRatio="1000" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SmartForm" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Verify_AddInternalComments" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:I19"/>
 </workbook>
 </file>
 
@@ -1234,7 +1233,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1306,11 +1305,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1349,7 +1351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1473,7 +1475,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1519,15 +1521,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1552,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
